--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T17:56:12+00:00</t>
+    <t>2024-02-12T16:40:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T10:55:15+00:00</t>
+    <t>2024-02-17T11:07:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T11:07:47+00:00</t>
+    <t>2024-02-17T11:16:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T11:16:35+00:00</t>
+    <t>2024-02-17T11:28:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T11:28:57+00:00</t>
+    <t>2024-02-17T14:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-17T14:54:31+00:00</t>
+    <t>2024-02-19T19:55:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T16:06:09+00:00</t>
+    <t>2024-05-03T09:16:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:16:39+00:00</t>
+    <t>2024-05-03T09:40:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T09:40:54+00:00</t>
+    <t>2024-05-03T10:09:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T10:09:53+00:00</t>
+    <t>2024-05-03T10:46:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-03T10:46:23+00:00</t>
+    <t>2024-05-06T14:44:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-06T14:44:22+00:00</t>
+    <t>2024-05-06T14:59:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/r5-core-main/StructureDefinition-at-core-valueset.xlsx
+++ b/r5-core-main/StructureDefinition-at-core-valueset.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-12T10:39:13+00:00</t>
+    <t>2024-10-16T09:04:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -593,7 +593,7 @@
   </si>
   <si>
     <t>Allows filtering of value sets that are appropriate for use versus not.See also the [http://hl7.org/fhir/StructureDefinition/valueset-workflowStatusDescription](http://hl7.org/fhir/extensions/StructureDefinition-valueset-workflowStatusDescription.html) extension for additional status information related to the editorial process.
-See guidance around (not) making local changes to elements [here](canonicalresource.html#localization).</t>
+See guidance around (not) making local changes to elements [here](http://hl7.org/fhir/R5/canonicalresource.html#localization).</t>
   </si>
   <si>
     <t>The lifecycle status of an artifact.</t>
@@ -648,7 +648,7 @@
   </si>
   <si>
     <t>Note that this is not the same as the meta.lastUpdated which is specific to an instance of a value set resource on a server.  Additional specific dates may be added as extensions or be found by consulting Provenances associated with past versions of the resource.
-See guidance around (not) making local changes to elements [here](canonicalresource.html#localization).</t>
+See guidance around (not) making local changes to elements [here](http://hl7.org/fhir/R5/canonicalresource.html#localization).</t>
   </si>
   <si>
     <t>FiveWs.recorded</t>
@@ -686,7 +686,7 @@
   </si>
   <si>
     <t>May be a web site, an email address, a telephone number, etc.
-See guidance around (not) making local changes to elements [here](canonicalresource.html#localization).</t>
+See guidance around (not) making local changes to elements [here](http://hl7.org/fhir/R5/canonicalresource.html#localization).</t>
   </si>
   <si>
     <t>ValueSet.description</t>
@@ -822,7 +822,7 @@
   </si>
   <si>
     <t>The 'date' element may be more recent than the approval date because of minor changes or editorial corrections.
-See guidance around (not) making local changes to elements [here](canonicalresource.html#localization).</t>
+See guidance around (not) making local changes to elements [here](http://hl7.org/fhir/R5/canonicalresource.html#localization).</t>
   </si>
   <si>
     <t>ValueSet.lastReviewDate</t>
@@ -835,7 +835,7 @@
   </si>
   <si>
     <t>If specified, this date follows the original approval date.
-See guidance around (not) making local changes to elements [here](canonicalresource.html#localization).</t>
+See guidance around (not) making local changes to elements [here](http://hl7.org/fhir/R5/canonicalresource.html#localization).</t>
   </si>
   <si>
     <t>Gives a sense of how "current" the content is.  Resources that have not been reviewed in a long time may have a risk of being less appropriate/relevant.</t>
@@ -855,7 +855,7 @@
   </si>
   <si>
     <t>The effective period for a ValueSet determines when the content is applicable for usage and is independent of publication and review dates. For example, a valueset intended to be used for the year 2016 might be published in 2015.
-See guidance around (not) making local changes to elements [here](canonicalresource.html#localization).</t>
+See guidance around (not) making local changes to elements [here](http://hl7.org/fhir/R5/canonicalresource.html#localization).</t>
   </si>
   <si>
     <t>Allows establishing a transition before a resource comes into effect and also allows for a sunsetting process when new versions of the ValueSet are or are expected to be used instead.</t>
@@ -909,7 +909,7 @@
     <t>An individual or organization asserted by the publisher to be primarily responsible for review of some aspect of the ValueSet.</t>
   </si>
   <si>
-    <t>See guidance around (not) making local changes to elements [here](canonicalresource.html#localization).</t>
+    <t>See guidance around (not) making local changes to elements [here](http://hl7.org/fhir/R5/canonicalresource.html#localization).</t>
   </si>
   <si>
     <t>ValueSet.endorser</t>
@@ -1368,7 +1368,7 @@
   </si>
   <si>
     <t>Expansion is performed to produce a collection of codes that are ready to use for data entry or validation. Value set expansions are always considered to be stateless - they are a record of the set of codes in the value set at a point in time under a given set of conditions, and are not subject to ongoing maintenance.
-Expansion.parameter is  a simplified list of parameters - a subset of the features of the [Parameters](parameters.html) resource.</t>
+Expansion.parameter is  a simplified list of parameters - a subset of the features of the [Parameters](http://hl7.org/fhir/R5/parameters.html) resource.</t>
   </si>
   <si>
     <t>ValueSet.expansion.id</t>
@@ -1526,7 +1526,7 @@
     <t>Formal identifier for the property</t>
   </si>
   <si>
-    <t>Reference to the formal meaning of the property. One possible source of meaning is the [Concept Properties](codesystem-concept-properties.html) code system.</t>
+    <t>Reference to the formal meaning of the property. One possible source of meaning is the [Concept Properties](http://hl7.org/fhir/R5/codesystem-concept-properties.html) code system.</t>
   </si>
   <si>
     <t>ValueSet.expansion.contains</t>
